--- a/biology/Médecine/SGPL1/SGPL1.xlsx
+++ b/biology/Médecine/SGPL1/SGPL1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SGPL1 (pour « sphingosine phosphate lyase 1 ») est une enzyme permettant le catabolisme de la sphingosine-1-phosphate. Son gène est SGPL1 situé sur le chromosome 10 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il module l'immunité cellulaire[5], inhibe la réponse inflammatoire et favorise la mobilisation des polynucléaires neutrophiles[6] et des lymphocytes[7]. Il intervient dans le métabolisme lipidique hépatique[8].
-Il favorise l'apoptose via le P53 et le p38 et pourrait avoir un effet protecteur contre les cancers[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il module l'immunité cellulaire, inhibe la réponse inflammatoire et favorise la mobilisation des polynucléaires neutrophiles et des lymphocytes. Il intervient dans le métabolisme lipidique hépatique.
+Il favorise l'apoptose via le P53 et le p38 et pourrait avoir un effet protecteur contre les cancers.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mutation du gène entraîne un syndrome comprenant un syndrome néphrotique, une insuffisance surrénalienne et une ichtyose[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mutation du gène entraîne un syndrome comprenant un syndrome néphrotique, une insuffisance surrénalienne et une ichtyose.
 </t>
         </is>
       </c>
